--- a/tsml_eval/_wip/catch22/pycatch22_catch22_ipd.xlsx
+++ b/tsml_eval/_wip/catch22/pycatch22_catch22_ipd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,6 +601,4494 @@
         <v>0.8574191532883989</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.9181615535435368</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.2147621960734069</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.36640584942816</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5482697259169241</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.07135294286810033</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.388216912559934</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.7027748394644375</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.682610720957763</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.2731795090732166</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.08585639349158214</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.892028062899535</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4641090699437342</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2165927489201291</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.03401360544217687</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.089103618998487</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.3105674158868296</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.5890486225481251</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.8864360579380658</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.04841110420753036</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.4500797793320541</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.563430865515911</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6093185793190498</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1249221205307899</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3324360417099035</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.804047159884638</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.605420035791506</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.6643191888123972</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.4263790012817343</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5725661005497575</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.362548187846182</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5590221813578008</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.05454866818690886</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.3184052188523921</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.6754849757305323</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.6741940077809627</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.7939939952729185</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.3925162315231809</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.382430964585962</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3128434764569267</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.344764992601353</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.07700552893710562</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.4583333333333334</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.4069984219219216</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.778747513382372</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.5890486225481251</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.8184240855835797</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.03616140122825839</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.1425184690760756</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.554511821968592</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6396131603023895</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1966051821013078</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1529517707677231</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.04166666666666663</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.5833333333333333</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.5978962594069379</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.847775752366145</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.39269908169875</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.8883513382490397</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9248767190512999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.3359417379513687</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.608147588792169</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5731491830329676</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.05384822293715665</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4646756819071542</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.7373254326044227</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.6289793621495811</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.8390223140918263</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.705231368240016</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.6291408173641</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6079137608318883</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.07593703429870273</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3778836817270564</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.7404830700486842</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.6154088917833608</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.9951859851520144</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.1334540465618921</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.612271843445715</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7718463280452653</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1078952391731514</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2851842084978578</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.830276379810613</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.483611654966423</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.6682353589740142</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.5673130618401365</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.3635061825463604</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.101515551080052</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7483716894163835</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3084150033943955</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1647420764712577</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.7186019587242891</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.911059049329703</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.39269908169875</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.755258067128582</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.9194077016631448</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-1.514761945679989</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.207435887865442</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4478498363562827</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1265194911807825</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H13" t="n">
+        <v>16</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2747010982270001</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.6788710443712426</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.790511713580148</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.39269908169875</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.7156207700281332</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.4215589312748209</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5681732764283662</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.360703915185401</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5590221813578008</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.05309767050505139</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H14" t="n">
+        <v>15</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.4673664162855364</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.6784647636730226</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.6814319454824896</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.9014067238776038</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6141835413143868</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.567474840785523</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5102222561629914</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.06247643748884553</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H15" t="n">
+        <v>15</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2469973906409358</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.7637942476363482</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.665693703666284</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.6570864551173147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.4824547776201771</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.4390748374362246</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.327650915676619</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5700892058028977</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.06530752703439917</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H16" t="n">
+        <v>15</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4798044287652889</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.04166666666666674</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.6834612732461967</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.730238045705369</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.6849799347546845</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.6170377003346826</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.4183957005622809</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.463807173802814</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.4202784391663372</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.002647393042965788</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2464374639784761</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.375</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.4072774949067502</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.819976677806285</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.5890486225481251</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.7670002255253047</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.08364505000823586</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7695345301757693</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.302967493968718</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.4853375979485981</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.05765345394639887</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.191716955468185</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.5833333333333333</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.6190143929371871</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.778747513382372</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.7218312544198466</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-0.5223600659674373</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.3625948119841619</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.295848099573639</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6858628080656608</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.06362976787376055</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3082695258395107</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.5416666666666667</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.6217645908916366</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.714203171343286</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.7055351118618288</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.4413055902525467</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.414338118055861</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.607711490568736</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.655568227082321</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1034394105962981</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4481460872234935</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.1458333333333334</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.8088382204824013</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.483611654966423</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.6458425342864412</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.4340425713548233</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5762800267988042</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.536727884349271</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5339198095168156</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.04228622296634809</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H21" t="n">
+        <v>15</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.4604518385877055</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.7202343573188227</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>6</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.6492256228579486</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.8834339343124851</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.023428170127922</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.390699711168085</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5855345727842974</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.06405296004013439</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H22" t="n">
+        <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.4195776792468955</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.7093219037794344</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.790511713580148</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.6671856902889055</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.4954315977050359</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.645796046840319</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.483901008448844</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5744675483392006</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.09333963940026183</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H23" t="n">
+        <v>15</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2704324965453008</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.04166666666666674</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.7978298563989681</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.483611654966423</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.39269908169875</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.6662215895868641</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.3267729179614105</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4680099973504319</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.32134743315533</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4478498363562827</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1238441488221404</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H24" t="n">
+        <v>16</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3656320704826966</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.08333333333333326</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.6923145861517955</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.790511713580148</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.67988411887476</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.5158521581668922</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.1740317961039589</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.298212236797246</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5990654214800044</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.04021450761302722</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H25" t="n">
+        <v>15</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3525351936321777</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.5416666666666667</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.6565063223466042</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.605420035791506</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.6999238292796519</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.5049881488939459</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3508234751728977</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.201355389290561</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5380978201604569</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.08974973815682329</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H26" t="n">
+        <v>16</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.21745055434721</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.04166666666666674</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.663683591547212</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.706676960788458</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.5259659116643511</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.3646472961538793</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.337804415061423</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.527713401875748</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3542779806423622</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1016302688541734</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.04166666666666674</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.4337770738041647</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.83902118125715</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.5890486225481251</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.9299716522530307</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.4819525931329125</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3304328581566238</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.23398129986254</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5463051992681456</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.07312103885597915</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H28" t="n">
+        <v>15</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3787010456977909</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.04166666666666674</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.6743069497118949</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.7012995686416583</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.058463176484725</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.209074536085319</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.568041929897866</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6562956405074443</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.08772221937652455</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H29" t="n">
+        <v>12</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3299957022661997</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-0.5833333333333333</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.8349861522657195</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.714203171343286</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.39269908169875</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.6754997549352599</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.4745493580634941</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.3232825677510591</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.500883110436364</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6382947949961563</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.06314496194598011</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H30" t="n">
+        <v>15</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.3590105621013568</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.08333333333333326</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.7789099708572513</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.605420035791506</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.651422243605126</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.5321021102931599</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.379125345125025</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.338404170414241</v>
+      </c>
+      <c r="D31" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5225211927333935</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.07362987838335319</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H31" t="n">
+        <v>15</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.3250411077870723</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.6814860277349185</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.665693703666284</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.6858122223829541</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.8871373568447356</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.027211676083378</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.472896335947906</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5855345727842974</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.07158404241086802</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H32" t="n">
+        <v>15</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.2697406318376841</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.7112305027350478</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.6561863431399698</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-0.7519186690000029</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.7519186690000029</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.343855110736078</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.4635993701452025</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.3308712551368631</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1015929648148513</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-0.4583333333333334</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.396340751291459</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>6</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.885299500946812</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.5890486225481251</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.8376587380056647</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.026548293247562</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-1.377173595454195</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.615486725844025</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.7718463280452653</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.08419052712562311</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H34" t="n">
+        <v>13</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J34" t="n">
+        <v>6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3202526021668508</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.8486668534497739</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>6</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.483611654966423</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.39269908169875</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.6516400899784618</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-0.5593282299883758</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.8767848187993459</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.129042806420456</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.590726781926652</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.04163235396607854</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3782650124349036</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-0.5833333333333333</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.6054045842234278</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.714203171343286</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.740036571736008</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.06989885046074906</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1222102661491153</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.537765719726941</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6676442489277808</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1533686804506323</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.2157362166660616</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.04166666666666663</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-0.5833333333333333</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.5705471894804164</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.994082636498592</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.39269908169875</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.8960191867637746</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.9476113784173414</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.353730632608701</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.665129854005297</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.724278314975761</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.09359127457826312</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H37" t="n">
+        <v>15</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.371905645629631</v>
+      </c>
+      <c r="L37" t="n">
+        <v>5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.8204341010196545</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>6</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.605420035791506</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.6446974657316308</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.8294642818318496</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.06383097312816033</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.79856768091601</v>
+      </c>
+      <c r="D38" t="n">
+        <v>14</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6723319593699537</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.03537518667006623</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H38" t="n">
+        <v>15</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.5095898443236516</v>
+      </c>
+      <c r="L38" t="n">
+        <v>5</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.7641136539328277</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.790511713580148</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.601296321388973</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.2081013502842735</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.005945736141455438</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.304699202822977</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.4068788509162941</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.170193307155966</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.1515196503568612</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.04166666666666663</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-0.5833333333333333</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5202304681719024</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.730238045705369</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.39269908169875</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.9560071999589475</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.4456265516219021</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5940335761074491</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.454050303961596</v>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.6124650097300476</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.09192011318297021</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H40" t="n">
+        <v>15</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.3777711602947217</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.6995153979966411</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>6</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.665693703666284</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.664085095943151</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.9586377430424355</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.2458418410280805</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.87585481625649</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.6112831059678285</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0574004530258565</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H41" t="n">
+        <v>15</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.3820079813796857</v>
+      </c>
+      <c r="L41" t="n">
+        <v>5</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.8315490504628018</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.605420035791506</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.6046829042783407</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.3807920317946573</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.5533497772114044</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.696669311724395</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6322887192477502</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.2441883823046229</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.1710310304562743</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-0.5416666666666667</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.4987382356325401</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.714203171343286</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.8478261396717153</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.9360330852348515</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.2013241498357845</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3.174850587790174</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.5744675483392006</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.05700540967580259</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H43" t="n">
+        <v>15</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.3522948348961698</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6574177740647442</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.7073200146207304</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1.033808643066272</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-1.386887323723247</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3.784278734060331</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.7553919636635025</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.05453675212907247</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H44" t="n">
+        <v>15</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.4154358245911746</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.8321812811156212</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.483611654966423</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.6199724512414112</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-0.05005424897850408</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1232104363797794</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.516220442018462</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.4392882820779884</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.2025087059553938</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.1107062305720367</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.04166666666666674</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-0.5833333333333333</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.5438493589629855</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.834750507092842</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.39269908169875</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.8716415840813488</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.4830367684551597</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.4117159567537269</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.328159963226436</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5586041358385474</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.03007488046711535</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H46" t="n">
+        <v>15</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5458934206705827</v>
+      </c>
+      <c r="L46" t="n">
+        <v>5</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.6622977356485015</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.730238045705369</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.6827214497148387</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-0.2116924776224356</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-1.343757533152316</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.515867256634874</v>
+      </c>
+      <c r="D47" t="n">
+        <v>9</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.7943984224547126</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.08121861825928711</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H47" t="n">
+        <v>13</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J47" t="n">
+        <v>6</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.3357415331087996</v>
+      </c>
+      <c r="L47" t="n">
+        <v>4</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.04166666666666674</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.8179327820487676</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.483611654966423</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.39269908169875</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.670493355712699</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-0.3638662692671653</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.5499177249363949</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.308693834093811</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.3386732617230355</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.3373894980018239</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.1459203714710174</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.375</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.3953789166952998</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.836011552168369</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.5890486225481251</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.8476026297185049</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1.003492323922206</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.3411080402724691</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3.609109947889565</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.6246774931195214</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.09910838011104869</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H49" t="n">
+        <v>15</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3762245694683437</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.8115764489970178</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>6</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.483611654966423</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.6430829893822426</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-0.8172454402770969</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.2267748942941682</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2.511637445451236</v>
+      </c>
+      <c r="D50" t="n">
+        <v>7</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.3893877052035377</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.1164559490893346</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2152294091963449</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.4418276429088155</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.751726919923953</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.5890486225481251</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.7987267679703307</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-0.5234944504968576</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.3633207749623713</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.333789217485319</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.471720296071963</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.3019675665269506</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.227749605339894</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.08333333333333326</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.4280771740573474</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.548155997005509</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.5890486225481251</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.9354075398444303</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.4997361371662115</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.6527048466431529</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3.348410322088169</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.601111200211361</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.08122178026440195</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H52" t="n">
+        <v>15</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.3733513088604504</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.6796055417828115</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.548155997005509</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.683689043242576</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.08208310132989116</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.0811449699889778</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.702405952859053</v>
+      </c>
+      <c r="D53" t="n">
+        <v>7</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.4306628574510463</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.09252281093008623</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2691040264132145</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.04166666666666674</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-0.5833333333333333</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.5746041881444746</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>6</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.665693703666284</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.39269908169875</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.8369230089312688</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.4655655738328327</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.6170146288597782</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.496558429028121</v>
+      </c>
+      <c r="D54" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.5752814149452522</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.08826944684735445</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>15</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.1984113085161829</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.08333333333333326</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.7815817355463861</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>6</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.639934155283392</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.39269908169875</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.6445781828231959</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.01569919941878239</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.1821102795578797</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.368973864826539</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.6985349828905802</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.1655269305090626</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.1873703447682827</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.04166666666666663</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-0.5416666666666667</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.5265412777699596</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.730238045705369</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.39269908169875</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.9339964091601548</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.03023049905317732</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.7950616955735685</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.422027532951794</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.6048537836018186</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.1179355615955273</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2376496674114253</v>
+      </c>
+      <c r="L56" t="n">
+        <v>3</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.4415999766706714</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.816271261963039</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.5890486225481251</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.9078449254372085</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.6721368167395874</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.4745313433848156</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.604354483852207</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.5506835418044483</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.05035538452603107</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H57" t="n">
+        <v>15</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.3598252057384437</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.1041666666666666</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.7750123138824506</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.790511713580148</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.6487154681870552</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.4018735115139348</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.6210771984003234</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.490086255294897</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.5140960999991129</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.1092565794761871</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H58" t="n">
+        <v>15</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.2708237768112504</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.08333333333333326</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.7963553986100638</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>6</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.665693703666284</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.39269908169875</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.6611991207849918</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.8345176118853304</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9700087580032233</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.72250713714922</v>
+      </c>
+      <c r="D59" t="n">
+        <v>14</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.6723319593699537</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0331668699632443</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>15</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4651742105016197</v>
+      </c>
+      <c r="L59" t="n">
+        <v>5</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.756138381469201</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.790511713580148</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.6035174724961659</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>-0.4401996089868457</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.1767330864208169</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.909866164078557</v>
+      </c>
+      <c r="D60" t="n">
+        <v>6</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.4016866417739396</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.1429109311577277</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.1869834646687778</v>
+      </c>
+      <c r="L60" t="n">
+        <v>4</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.5416666666666667</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.53719266138688</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.714203171343286</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.7705482880452872</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>-0.2782996101166753</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.4562288759904514</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.773841537990277</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.3624572682577877</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.5804057343849152</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.03401360544217687</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.09378303223635087</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-0.1666666666666666</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.2440544803946052</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.885299500946812</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.5890486225481251</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.8717289284089319</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1.04530323484694</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-1.379035812235368</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3.622396088656555</v>
+      </c>
+      <c r="D62" t="n">
+        <v>9</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.70526847206411</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.08747346297069973</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H62" t="n">
+        <v>13</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J62" t="n">
+        <v>6</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.2889035056485426</v>
+      </c>
+      <c r="L62" t="n">
+        <v>4</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.8388125090651466</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>6</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.483611654966423</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.6534315620061801</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.8659695494957376</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.000827174611872</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3.581393477540012</v>
+      </c>
+      <c r="D63" t="n">
+        <v>14</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.6406273588011024</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.04270055015232154</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H63" t="n">
+        <v>15</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.4778548151957078</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.7348060502699002</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.6286856053675028</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.6499297227713434</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.074292082371753</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3.153595860989167</v>
+      </c>
+      <c r="D64" t="n">
+        <v>7</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.6097366248383029</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1269606964503047</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H64" t="n">
+        <v>15</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.2901606658208797</v>
+      </c>
+      <c r="L64" t="n">
+        <v>4</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.6688431659131584</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>6</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.730238045705369</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.39269908169875</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.7301769258421429</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1.005789784844423</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.8525265741970189</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3.412585659955252</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.6560727257825023</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.2154968790564117</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>12</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.1464749392081899</v>
+      </c>
+      <c r="L65" t="n">
+        <v>5</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.5833333333333333</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.7287066550938026</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.857500426386952</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.39269908169875</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.7170050546584106</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.8993800128691793</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.7601801675992275</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.458975349734125</v>
+      </c>
+      <c r="D66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.6521124287654527</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.07172661327223592</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H66" t="n">
+        <v>16</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.3598786295094234</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.08333333333333326</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.7478701938552067</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>7</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.6601457756654892</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>-1.217799162690697</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-1.362041877047029</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.654000422760271</v>
+      </c>
+      <c r="D67" t="n">
+        <v>9</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.6524217966713231</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.1062682668209709</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H67" t="n">
+        <v>14</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J67" t="n">
+        <v>5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.3710935991287094</v>
+      </c>
+      <c r="L67" t="n">
+        <v>5</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.08333333333333326</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.8126578580929615</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>6</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.665693703666284</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.196349540849375</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.659870537296039</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>-0.5131589384094636</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.7230163974182168</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.74801355008805</v>
+      </c>
+      <c r="D68" t="n">
+        <v>6</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.3282023902573986</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.4581136736893931</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.01360544217687075</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.09001035233259698</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-0.2916666666666666</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.2116368912478352</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>6</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1.831740878004061</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.5890486225481251</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.9646969865224461</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
